--- a/data/data/umbrellas_sold_1.xlsx
+++ b/data/data/umbrellas_sold_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\py-ml\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\DataSci\data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A894B6-C7EF-4A81-9629-7B56B02CB8DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DAB86E-C8EA-488F-AB3A-129CFBFC1134}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F56B3248-FE8F-416B-8CF3-93076C261D0B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12825" xr2:uid="{F56B3248-FE8F-416B-8CF3-93076C261D0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,11 +76,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -88,7 +88,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -96,7 +96,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -104,7 +104,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -478,17 +478,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9362890-CC0F-4CF6-BAEF-B2957330146F}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.8984375" customWidth="1"/>
-    <col min="3" max="3" width="16.69921875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -499,7 +497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -510,7 +508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -521,7 +519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -532,7 +530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -543,7 +541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -554,7 +552,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -565,7 +563,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -576,7 +574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -587,7 +585,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -598,7 +596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -609,7 +607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -620,7 +618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -631,7 +629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -642,7 +640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -653,7 +651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -664,7 +662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -675,7 +673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -686,7 +684,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -697,7 +695,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -708,7 +706,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -719,7 +717,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
@@ -730,7 +728,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -741,7 +739,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -752,7 +750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
